--- a/CHATGAME/Assets/Data/UI text.xlsx
+++ b/CHATGAME/Assets/Data/UI text.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99ccd577c8ac53ff/바탕 화면/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F7FBD70-71BD-434D-9283-EB1B0CFE0118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{161EEB8E-03E0-4517-B096-19E2711EFFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{52C131E0-3625-409F-9DBC-C4D8ECB4944A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>KO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,86 +58,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>はじめから</t>
+  </si>
+  <si>
+    <r>
+      <t>新游</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202223"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>戏</t>
+    </r>
+  </si>
+  <si>
+    <t>NEW GAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>이어하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>갤러리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOAD GAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEW GAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GALLERY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXIT GAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gallery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쓰담쓰담</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>はじめから</t>
-  </si>
-  <si>
-    <t>終了</t>
-  </si>
-  <si>
-    <t>退出</t>
-  </si>
-  <si>
-    <t>SNS </t>
-  </si>
-  <si>
-    <t>なでなで</t>
-  </si>
-  <si>
-    <r>
-      <t>新游</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF202223"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>戏</t>
-    </r>
   </si>
   <si>
     <r>
@@ -177,6 +121,14 @@
     </r>
   </si>
   <si>
+    <t>LOAD GAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갤러리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>ギャラリ</t>
     </r>
@@ -216,6 +168,31 @@
     </r>
   </si>
   <si>
+    <t>GALLERY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>終了</t>
+  </si>
+  <si>
+    <t>退出</t>
+  </si>
+  <si>
+    <t>EXIT GAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNS </t>
+  </si>
+  <si>
     <r>
       <t>社交</t>
     </r>
@@ -229,6 +206,10 @@
       </rPr>
       <t>网络</t>
     </r>
+  </si>
+  <si>
+    <t>데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -280,6 +261,10 @@
     </r>
   </si>
   <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>ギャラリ</t>
     </r>
@@ -318,6 +303,17 @@
     </r>
   </si>
   <si>
+    <t>Gallery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰담쓰담</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なでなで</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -341,6 +337,20 @@
     </r>
   </si>
   <si>
+    <t>Pat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サウンド </t>
+  </si>
+  <si>
+    <t>声音 </t>
+  </si>
+  <si>
     <t>Sound</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,66 +359,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>背景音乐 </t>
+  </si>
+  <si>
+    <t>언어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言語 </t>
+  </si>
+  <si>
+    <t>语言 </t>
+  </si>
+  <si>
     <t>Language</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>언어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>계정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アカウント </t>
+  </si>
+  <si>
+    <t>账户 </t>
   </si>
   <si>
     <t>Account</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>계정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>저장하기</t>
+  </si>
+  <si>
+    <t>セーブ </t>
+  </si>
+  <si>
+    <t>保存 </t>
   </si>
   <si>
     <t>Save</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>저장하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>サウンド </t>
-  </si>
-  <si>
-    <t>言語 </t>
-  </si>
-  <si>
-    <t>アカウント </t>
-  </si>
-  <si>
-    <t>セーブ </t>
-  </si>
-  <si>
-    <t>声音 </t>
-  </si>
-  <si>
-    <t>背景音乐 </t>
-  </si>
-  <si>
-    <t>语言 </t>
-  </si>
-  <si>
-    <t>账户 </t>
-  </si>
-  <si>
-    <t>保存 </t>
-  </si>
-  <si>
-    <t>음성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>아직 할 수 없다구!
+내 이야기 상대를 더 해주면 허락할께</t>
+  </si>
+  <si>
+    <t>まだできないよ！
+もう少し私と話してくれたら、その時許すよ</t>
+  </si>
+  <si>
+    <t>你还不能做哦！
+再和我聊一会儿的话，到时候我就答应你了</t>
+  </si>
+  <si>
+    <t>You can't do it yet!
+If you talk to me a little more, then I'll let you</t>
+  </si>
+  <si>
+    <t>이벤트</t>
+  </si>
+  <si>
+    <t>イベント</t>
+  </si>
+  <si>
+    <t>事件</t>
+  </si>
+  <si>
+    <t>Event</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,7 +630,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -645,6 +672,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -980,23 +1010,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05533CD-8686-4012-9E6D-F284907C7539}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="1"/>
-    <col min="3" max="3" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="1"/>
+    <col min="3" max="3" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1"/>
     <col min="5" max="5" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="1"/>
+    <col min="6" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -1013,7 +1043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1021,217 +1051,251 @@
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>50</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>40</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="96.75">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.5">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
